--- a/ampl-data-input-excel/34-assign-423-no-pbsum/34-assign-423-no-pbsum.xlsx
+++ b/ampl-data-input-excel/34-assign-423-no-pbsum/34-assign-423-no-pbsum.xlsx
@@ -2535,7 +2535,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2578,15 +2578,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2" s="31" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45658</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
+        <f aca="false">E2+200</f>
+        <v>45858</v>
       </c>
       <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>

--- a/ampl-data-input-excel/34-assign-423-no-pbsum/34-assign-423-no-pbsum.xlsx
+++ b/ampl-data-input-excel/34-assign-423-no-pbsum/34-assign-423-no-pbsum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -1330,7 +1330,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1944,7 +1944,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2468,8 +2468,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +2616,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2820,7 +2820,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2873,7 +2873,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="D1:D2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="D1:D2 D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16009,7 +16009,7 @@
   <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22808,7 +22808,7 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q14" activeCellId="0" sqref="Q14"/>
+      <selection pane="topLeft" activeCell="Q14" activeCellId="1" sqref="D1:D2 Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29615,7 +29615,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30074,7 +30074,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30271,7 +30271,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30636,7 +30636,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="D1:D2 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33114,7 +33114,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="1" sqref="D1:D2 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
